--- a/Special-Edition_python_DA/Python_DA_Course/M2_Pandas_Basic/exercises_HW/products_data.xlsx
+++ b/Special-Edition_python_DA/Python_DA_Course/M2_Pandas_Basic/exercises_HW/products_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="allproduct" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,11 +461,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Product A</t>
+          <t>APPLE</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>99.98999999999999</v>
+        <v>80</v>
       </c>
       <c r="D2" t="n">
         <v>100</v>
@@ -477,11 +477,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Product B</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>149.99</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
         <v>75</v>
@@ -493,11 +493,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Product C</t>
+          <t>Tomato</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>199.99</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
         <v>50</v>
